--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -890,6 +890,9 @@
     <t>CoverageEligibilityRequest.item</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Item to be evaluated for eligibiity</t>
   </si>
   <si>
@@ -897,6 +900,13 @@
   </si>
   <si>
     <t>The items to be processed for the request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:category.coding.code}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>CoverageEligibilityRequest.item.id</t>
@@ -1149,6 +1159,54 @@
   </si>
   <si>
     <t>Needed to provide complex service proposal such as a Device or a plan.</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Coverage eligibility for item</t>
+  </si>
+  <si>
+    <t>Coverage eligibility for item.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/claim-item-category"/&gt;
+    &lt;code value="item"/&gt;
+    &lt;display value="Item"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Benefit categories such as: oral, medical, vision etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/ex-benefitcategory</t>
+  </si>
+  <si>
+    <t>Billing, service, product, or drug code</t>
+  </si>
+  <si>
+    <t>This contains the product, service, drug or other billing code for the item.</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>Coverage eligibility for service</t>
+  </si>
+  <si>
+    <t>Coverage eligibility for service.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/claim-item-category"/&gt;
+    &lt;code value="service"/&gt;
+    &lt;display value="Service"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1511,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1488,7 +1546,7 @@
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.91796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="27.65234375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -5421,7 +5479,7 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>74</v>
@@ -5436,14 +5494,14 @@
         <v>224</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
@@ -5480,16 +5538,14 @@
         <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>280</v>
@@ -5521,7 +5577,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5630,7 +5686,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5741,7 +5797,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5854,7 +5910,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5880,14 +5936,14 @@
         <v>243</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -5936,7 +5992,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5965,7 +6021,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5991,16 +6047,16 @@
         <v>158</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -6029,7 +6085,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -6047,7 +6103,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6076,7 +6132,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6102,16 +6158,16 @@
         <v>158</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6139,10 +6195,10 @@
         <v>162</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -6160,7 +6216,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6189,7 +6245,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6298,7 +6354,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6368,16 +6424,16 @@
         <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>236</v>
@@ -6409,7 +6465,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6432,19 +6488,19 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6493,7 +6549,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6514,15 +6570,15 @@
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6548,16 +6604,16 @@
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6606,7 +6662,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6627,15 +6683,15 @@
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6661,16 +6717,16 @@
         <v>158</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6698,10 +6754,10 @@
         <v>162</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
@@ -6719,7 +6775,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6748,7 +6804,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6774,14 +6830,14 @@
         <v>196</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6830,7 +6886,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6859,7 +6915,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6882,17 +6938,17 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -6941,7 +6997,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6970,7 +7026,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6993,17 +7049,17 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7052,7 +7108,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7081,7 +7137,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7104,17 +7160,17 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>219</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7163,7 +7219,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7192,7 +7248,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7218,14 +7274,14 @@
         <v>224</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7274,7 +7330,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7295,7 +7351,7 @@
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7303,7 +7359,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7412,7 +7468,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7523,7 +7579,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7636,7 +7692,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7659,17 +7715,17 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>74</v>
@@ -7697,10 +7753,10 @@
         <v>162</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>74</v>
@@ -7718,7 +7774,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -7747,7 +7803,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7773,14 +7829,14 @@
         <v>248</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -7829,7 +7885,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7853,6 +7909,4018 @@
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -862,10 +862,10 @@
     <t>UUID</t>
   </si>
   <si>
-    <t>Claim openIMIS UUID</t>
-  </si>
-  <si>
-    <t>Claim UUID generated by openIMIS.</t>
+    <t>External System generated UUID</t>
+  </si>
+  <si>
+    <t>UUID generated by external system to indentify the response openIMIS.</t>
   </si>
   <si>
     <t>CoverageEligibilityRequest.status</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1306,7 +1306,7 @@
     <t>Needed to convey the category of service or product for which eligibility is sought.</t>
   </si>
   <si>
-    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/claim-item-category</t>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/coverage-item-category</t>
   </si>
   <si>
     <t>CoverageEligibilityRequest.item.productOrService</t>
@@ -1483,7 +1483,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/claim-item-category"/&gt;
+    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/coverage-item-category"/&gt;
     &lt;code value="item"/&gt;
     &lt;display value="Item"/&gt;
   &lt;/coding&gt;
@@ -1513,7 +1513,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/claim-item-category"/&gt;
+    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/coverage-item-category"/&gt;
     &lt;code value="service"/&gt;
     &lt;display value="Service"/&gt;
   &lt;/coding&gt;
@@ -1870,7 +1870,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.4921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="27.65234375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -7690,7 +7690,7 @@
         <v>83</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$132</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1646,21 +1643,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2006,7 +1988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -2115,7 +2097,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>82</v>
       </c>
@@ -2226,7 +2208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>90</v>
       </c>
@@ -2335,7 +2317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>96</v>
       </c>
@@ -2446,7 +2428,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>102</v>
       </c>
@@ -2557,7 +2539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>111</v>
       </c>
@@ -2668,7 +2650,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>119</v>
       </c>
@@ -2779,7 +2761,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>127</v>
       </c>
@@ -2890,7 +2872,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>135</v>
       </c>
@@ -3003,7 +2985,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>140</v>
       </c>
@@ -3019,7 +3001,7 @@
         <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -3112,7 +3094,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>149</v>
       </c>
@@ -3221,7 +3203,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>154</v>
       </c>
@@ -3332,7 +3314,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>160</v>
       </c>
@@ -3445,7 +3427,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>170</v>
       </c>
@@ -3558,7 +3540,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>181</v>
       </c>
@@ -3667,7 +3649,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>182</v>
       </c>
@@ -3778,7 +3760,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>183</v>
       </c>
@@ -3891,7 +3873,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>192</v>
       </c>
@@ -4000,7 +3982,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>193</v>
       </c>
@@ -4111,7 +4093,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>194</v>
       </c>
@@ -4224,7 +4206,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>202</v>
       </c>
@@ -4335,7 +4317,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>209</v>
       </c>
@@ -4444,7 +4426,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>217</v>
       </c>
@@ -4555,7 +4537,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>224</v>
       </c>
@@ -4668,7 +4650,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>233</v>
       </c>
@@ -4781,7 +4763,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>241</v>
       </c>
@@ -4894,7 +4876,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>250</v>
       </c>
@@ -5005,7 +4987,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>258</v>
       </c>
@@ -5114,7 +5096,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>265</v>
       </c>
@@ -5225,7 +5207,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>140</v>
       </c>
@@ -5338,7 +5320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>149</v>
       </c>
@@ -5447,7 +5429,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>154</v>
       </c>
@@ -5558,7 +5540,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>160</v>
       </c>
@@ -5671,7 +5653,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>170</v>
       </c>
@@ -5784,7 +5766,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>181</v>
       </c>
@@ -5893,7 +5875,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>182</v>
       </c>
@@ -6004,7 +5986,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>183</v>
       </c>
@@ -6117,7 +6099,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>192</v>
       </c>
@@ -6226,7 +6208,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>193</v>
       </c>
@@ -6337,7 +6319,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>194</v>
       </c>
@@ -6450,7 +6432,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>202</v>
       </c>
@@ -6561,7 +6543,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>209</v>
       </c>
@@ -6672,7 +6654,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>217</v>
       </c>
@@ -6783,7 +6765,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>224</v>
       </c>
@@ -6896,7 +6878,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>233</v>
       </c>
@@ -7009,7 +6991,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>241</v>
       </c>
@@ -7122,7 +7104,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>250</v>
       </c>
@@ -7233,7 +7215,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>258</v>
       </c>
@@ -7342,7 +7324,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>265</v>
       </c>
@@ -7453,7 +7435,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>276</v>
       </c>
@@ -7566,7 +7548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>285</v>
       </c>
@@ -7677,7 +7659,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>294</v>
       </c>
@@ -7788,7 +7770,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>301</v>
       </c>
@@ -7901,7 +7883,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>309</v>
       </c>
@@ -8012,7 +7994,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>315</v>
       </c>
@@ -8123,7 +8105,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>322</v>
       </c>
@@ -8234,7 +8216,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>328</v>
       </c>
@@ -8347,7 +8329,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>336</v>
       </c>
@@ -8458,7 +8440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>343</v>
       </c>
@@ -8569,7 +8551,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>349</v>
       </c>
@@ -8682,7 +8664,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>355</v>
       </c>
@@ -8791,7 +8773,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>356</v>
       </c>
@@ -8902,7 +8884,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>357</v>
       </c>
@@ -9015,7 +8997,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>362</v>
       </c>
@@ -9126,7 +9108,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>367</v>
       </c>
@@ -9239,7 +9221,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>373</v>
       </c>
@@ -9350,7 +9332,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>377</v>
       </c>
@@ -9463,7 +9445,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>382</v>
       </c>
@@ -9572,7 +9554,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>383</v>
       </c>
@@ -9683,7 +9665,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>384</v>
       </c>
@@ -9796,7 +9778,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>385</v>
       </c>
@@ -9909,7 +9891,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>390</v>
       </c>
@@ -10020,7 +10002,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>395</v>
       </c>
@@ -10131,7 +10113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>399</v>
       </c>
@@ -10240,7 +10222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>405</v>
       </c>
@@ -10349,7 +10331,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>406</v>
       </c>
@@ -10460,7 +10442,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>407</v>
       </c>
@@ -10573,7 +10555,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>408</v>
       </c>
@@ -10684,7 +10666,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>412</v>
       </c>
@@ -10795,7 +10777,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>418</v>
       </c>
@@ -10908,7 +10890,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>425</v>
       </c>
@@ -11017,7 +10999,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>426</v>
       </c>
@@ -11128,7 +11110,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>427</v>
       </c>
@@ -11241,7 +11223,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>428</v>
       </c>
@@ -11354,7 +11336,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>430</v>
       </c>
@@ -11467,7 +11449,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>437</v>
       </c>
@@ -11578,7 +11560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>441</v>
       </c>
@@ -11689,7 +11671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>446</v>
       </c>
@@ -11800,7 +11782,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>450</v>
       </c>
@@ -11911,7 +11893,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>453</v>
       </c>
@@ -12022,7 +12004,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>457</v>
       </c>
@@ -12131,7 +12113,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>458</v>
       </c>
@@ -12242,7 +12224,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>459</v>
       </c>
@@ -12355,7 +12337,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>460</v>
       </c>
@@ -12466,7 +12448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>467</v>
       </c>
@@ -12577,7 +12559,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>399</v>
       </c>
@@ -12690,7 +12672,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
         <v>405</v>
       </c>
@@ -12799,7 +12781,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>406</v>
       </c>
@@ -12910,7 +12892,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>407</v>
       </c>
@@ -13023,7 +13005,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>408</v>
       </c>
@@ -13134,7 +13116,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>412</v>
       </c>
@@ -13247,7 +13229,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>418</v>
       </c>
@@ -13360,7 +13342,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>430</v>
       </c>
@@ -13473,7 +13455,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>437</v>
       </c>
@@ -13584,7 +13566,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>441</v>
       </c>
@@ -13695,7 +13677,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>446</v>
       </c>
@@ -13806,7 +13788,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>450</v>
       </c>
@@ -13917,7 +13899,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>453</v>
       </c>
@@ -14028,7 +14010,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
         <v>457</v>
       </c>
@@ -14137,7 +14119,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>458</v>
       </c>
@@ -14248,7 +14230,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>459</v>
       </c>
@@ -14361,7 +14343,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>460</v>
       </c>
@@ -14472,7 +14454,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>467</v>
       </c>
@@ -14583,7 +14565,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>399</v>
       </c>
@@ -14696,7 +14678,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
         <v>405</v>
       </c>
@@ -14805,7 +14787,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>406</v>
       </c>
@@ -14916,7 +14898,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>407</v>
       </c>
@@ -15029,7 +15011,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>408</v>
       </c>
@@ -15140,7 +15122,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
         <v>412</v>
       </c>
@@ -15253,7 +15235,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>418</v>
       </c>
@@ -15366,7 +15348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>430</v>
       </c>
@@ -15479,7 +15461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>437</v>
       </c>
@@ -15590,7 +15572,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>441</v>
       </c>
@@ -15701,7 +15683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>446</v>
       </c>
@@ -15812,7 +15794,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>450</v>
       </c>
@@ -15923,7 +15905,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
         <v>453</v>
       </c>
@@ -16034,7 +16016,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
         <v>457</v>
       </c>
@@ -16143,7 +16125,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
         <v>458</v>
       </c>
@@ -16254,7 +16236,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
         <v>459</v>
       </c>
@@ -16367,7 +16349,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>460</v>
       </c>
@@ -16478,7 +16460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>467</v>
       </c>
@@ -16590,24 +16572,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM132">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI131">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1053,6 +1053,10 @@
     <t>CoverageEligibilityRequest.insurer</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-insurance-organization)
+</t>
+  </si>
+  <si>
     <t>Coverage issuer</t>
   </si>
   <si>
@@ -1060,11 +1064,6 @@
   </si>
   <si>
     <t>Need to identify the recipient.</t>
-  </si>
-  <si>
-    <t>&lt;valueReference xmlns="http://hl7.org/fhir"&gt;
-  &lt;reference value="openIMIS"/&gt;
-&lt;/valueReference&gt;</t>
   </si>
   <si>
     <t>Request.performer</t>
@@ -8354,17 +8353,17 @@
         <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -8374,7 +8373,7 @@
         <v>74</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage-eligibility-request.xlsx
+++ b/StructureDefinition-openimis-coverage-eligibility-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
